--- a/sample/stitched/stitched_output.xlsx
+++ b/sample/stitched/stitched_output.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>roi_02</t>
+          <t>roi_01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/sample/stitched/stitched_output.xlsx
+++ b/sample/stitched/stitched_output.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>warranty card</t>
+          <t>rea!me</t>
         </is>
       </c>
     </row>

--- a/sample/stitched/stitched_output.xlsx
+++ b/sample/stitched/stitched_output.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rea!me</t>
+          <t>realme</t>
         </is>
       </c>
     </row>
